--- a/KIDEARNchores.xlsx
+++ b/KIDEARNchores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14694\pet-shop-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F39C63-997F-41BC-B111-754EEBBA9D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323173E-9B73-43CC-855E-9BD35F1127A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{4108318D-A7FF-4E56-AC02-CCC5BCE6B56D}"/>
+    <workbookView xWindow="-28785" yWindow="150" windowWidth="16440" windowHeight="6000" xr2:uid="{4108318D-A7FF-4E56-AC02-CCC5BCE6B56D}"/>
   </bookViews>
   <sheets>
     <sheet name="chores" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>choreId</t>
   </si>
@@ -44,28 +44,232 @@
     <t>cost</t>
   </si>
   <si>
-    <t>make bed</t>
-  </si>
-  <si>
-    <t>vaccuum room</t>
-  </si>
-  <si>
-    <t>pick up toys</t>
-  </si>
-  <si>
-    <t>load dishwasher</t>
-  </si>
-  <si>
-    <t>sweep kitchen</t>
-  </si>
-  <si>
-    <t>wipe counters</t>
-  </si>
-  <si>
-    <t>clean bathroom counter</t>
-  </si>
-  <si>
-    <t>clean toilet</t>
+    <t>Brush teeth</t>
+  </si>
+  <si>
+    <t>Pick up/put away toys</t>
+  </si>
+  <si>
+    <t>Assist in making bed</t>
+  </si>
+  <si>
+    <t>Dress self</t>
+  </si>
+  <si>
+    <t>Collect dirty clothes</t>
+  </si>
+  <si>
+    <t>Ages</t>
+  </si>
+  <si>
+    <t>Put dirty clothes in hamper</t>
+  </si>
+  <si>
+    <t>Help move clothes from washer to dryer</t>
+  </si>
+  <si>
+    <t>Fill pet's water and food bowl</t>
+  </si>
+  <si>
+    <t>Help a parent clean up spills</t>
+  </si>
+  <si>
+    <t>Swiffer floors</t>
+  </si>
+  <si>
+    <t>Dust (with parent removing knick-knacks)</t>
+  </si>
+  <si>
+    <t>Wipe cabinets</t>
+  </si>
+  <si>
+    <t>Wipe baseboards</t>
+  </si>
+  <si>
+    <t>Stirring batter in a bowl</t>
+  </si>
+  <si>
+    <t>Pour liquid ingredients</t>
+  </si>
+  <si>
+    <t>Yes/no ma'am and sir</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Learn to match outfits</t>
+  </si>
+  <si>
+    <t>Match socks in the laundry</t>
+  </si>
+  <si>
+    <t>Fold dish towels</t>
+  </si>
+  <si>
+    <t>Hang towels in the bathroom</t>
+  </si>
+  <si>
+    <t>Wipe out bathroom sinks</t>
+  </si>
+  <si>
+    <t>Bring things from car to house</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Make bed every day</t>
+  </si>
+  <si>
+    <t>Comb hair</t>
+  </si>
+  <si>
+    <t>Take shower</t>
+  </si>
+  <si>
+    <t>Choose day's outfit and get dressed</t>
+  </si>
+  <si>
+    <t>Wake up with alarm</t>
+  </si>
+  <si>
+    <t>Write thank you notes</t>
+  </si>
+  <si>
+    <t>Gather trash</t>
+  </si>
+  <si>
+    <t>Rake leaves</t>
+  </si>
+  <si>
+    <t>Vacuum rooms</t>
+  </si>
+  <si>
+    <t>Wet mop rooms</t>
+  </si>
+  <si>
+    <t>Fold laundry</t>
+  </si>
+  <si>
+    <t>Put laundry away</t>
+  </si>
+  <si>
+    <t>Change lightbulbs (with supervision)</t>
+  </si>
+  <si>
+    <t>Clean toilet</t>
+  </si>
+  <si>
+    <t>Clean mirror</t>
+  </si>
+  <si>
+    <t>Set table</t>
+  </si>
+  <si>
+    <t>Help prepare food</t>
+  </si>
+  <si>
+    <t>Whisk eggs</t>
+  </si>
+  <si>
+    <t>Frost cakes/cupcakes</t>
+  </si>
+  <si>
+    <t>Use a can opener</t>
+  </si>
+  <si>
+    <t>Grate cheese with hand grater</t>
+  </si>
+  <si>
+    <t>Use pairing or other smallk nives</t>
+  </si>
+  <si>
+    <t>Clean microwave</t>
+  </si>
+  <si>
+    <t>Boil pasta and eggs</t>
+  </si>
+  <si>
+    <t>Fry eggs</t>
+  </si>
+  <si>
+    <t>Make grilled cheese sandwiches</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>Take care of personal hygiene</t>
+  </si>
+  <si>
+    <t>Keep bedroom clean</t>
+  </si>
+  <si>
+    <t>Be responsible for homework</t>
+  </si>
+  <si>
+    <t>Wash/dry clothes</t>
+  </si>
+  <si>
+    <t>Put groceries away</t>
+  </si>
+  <si>
+    <t>Sweep floors and porches</t>
+  </si>
+  <si>
+    <t>Sweep out garage</t>
+  </si>
+  <si>
+    <t>Vacuum house</t>
+  </si>
+  <si>
+    <t>Clean bathrooms</t>
+  </si>
+  <si>
+    <t>Take garbage/recycling to curb</t>
+  </si>
+  <si>
+    <t>Bring in mail</t>
+  </si>
+  <si>
+    <t>Walk dog</t>
+  </si>
+  <si>
+    <t>Wash and vacuum car</t>
+  </si>
+  <si>
+    <t>Hammer nails</t>
+  </si>
+  <si>
+    <t>Deep clean kitchen</t>
+  </si>
+  <si>
+    <t>Make simple meals</t>
+  </si>
+  <si>
+    <t>Cook pancakes on griddle</t>
+  </si>
+  <si>
+    <t>Bake cookies</t>
+  </si>
+  <si>
+    <t>Take foods in and out of oven</t>
+  </si>
+  <si>
+    <t>Learn to use timers and termometers</t>
+  </si>
+  <si>
+    <t>Trim/slice vegetables</t>
+  </si>
+  <si>
+    <t>Learn to use a food processor</t>
+  </si>
+  <si>
+    <t>Use chef's knife</t>
+  </si>
+  <si>
+    <t>9-12</t>
   </si>
 </sst>
 </file>
@@ -112,9 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -430,114 +635,1038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0CFEC0-DDE4-4DE4-A1AE-43DAA9CF8443}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1">
         <v>1</v>
       </c>
     </row>
